--- a/train_tsm.xlsx
+++ b/train_tsm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sook Mun\Google Drive\Y3S2\CS2\fit3162\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250C19AE-519D-42BB-BF93-1ACFB2B88FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB1A2F-EE56-4320-8224-B5327CA06000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="5430" windowWidth="23580" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9495" yWindow="810" windowWidth="23580" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Contrast</t>
   </si>
@@ -363,13 +363,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -558,57 +561,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4.8273865320502349E-3</v>
-      </c>
-      <c r="B12">
-        <v>0.98370859287657608</v>
-      </c>
-      <c r="C12">
-        <v>0.69888102575816557</v>
-      </c>
-      <c r="D12">
-        <v>0.99758630673397475</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.0702044568282389E-2</v>
-      </c>
-      <c r="B13">
-        <v>0.94416163197763725</v>
-      </c>
-      <c r="C13">
-        <v>0.79775136177281991</v>
-      </c>
-      <c r="D13">
-        <v>0.99464897771585892</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5.9186128621375993E-3</v>
-      </c>
-      <c r="B14">
-        <v>0.98258193315077647</v>
-      </c>
-      <c r="C14">
-        <v>0.65431907259035682</v>
-      </c>
-      <c r="D14">
-        <v>0.99704069356893121</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/train_tsm.xlsx
+++ b/train_tsm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sook Mun\Google Drive\Y3S2\CS2\fit3162\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB1A2F-EE56-4320-8224-B5327CA06000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D201E864-1662-472B-AB7B-DD1913CD5AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="810" windowWidth="23580" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="1965" windowWidth="23580" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
